--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_22_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_22_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3100570.440126488</v>
+        <v>3089253.619419894</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2120971.347036313</v>
+        <v>2120971.347036315</v>
       </c>
     </row>
     <row r="9">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D11" t="n">
-        <v>168.1623262975217</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958322</v>
+        <v>62.21262516958321</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1432,10 +1432,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>256.2884035736825</v>
       </c>
       <c r="Y11" t="n">
         <v>339.262802037461</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734116405</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414546</v>
@@ -1530,25 +1530,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D13" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572821</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124548</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.9570160514552</v>
+        <v>41.9570160514547</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
@@ -1596,7 +1596,7 @@
         <v>178.7345187704446</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335041</v>
       </c>
     </row>
     <row r="14">
@@ -1609,22 +1609,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E14" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G14" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>62.21262516958325</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210276</v>
+        <v>91.73237387425883</v>
       </c>
       <c r="U14" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>196.8486114728749</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X14" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y14" t="n">
         <v>339.262802037461</v>
@@ -1767,25 +1767,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D16" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572821</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124552</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128493</v>
@@ -1821,7 +1821,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U16" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870209</v>
       </c>
       <c r="V16" t="n">
         <v>205.1625067052354</v>
@@ -1830,7 +1830,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X16" t="n">
-        <v>178.7345187704451</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y16" t="n">
         <v>171.6095167335022</v>
@@ -1846,22 +1846,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C17" t="n">
-        <v>60.01624772827934</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D17" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E17" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F17" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G17" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,19 +1897,19 @@
         <v>62.21262516958325</v>
       </c>
       <c r="T17" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V17" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>302.2658320988205</v>
+        <v>195.8647474770666</v>
       </c>
       <c r="X17" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>339.262802037461</v>
@@ -2004,25 +2004,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C19" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D19" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E19" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797657</v>
       </c>
       <c r="F19" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433864</v>
       </c>
       <c r="G19" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404362</v>
       </c>
       <c r="H19" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572818</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124549</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S19" t="n">
         <v>142.7938887128493</v>
@@ -2058,7 +2058,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U19" t="n">
-        <v>239.2367015870211</v>
+        <v>239.2367015870207</v>
       </c>
       <c r="V19" t="n">
         <v>205.1625067052354</v>
@@ -2067,7 +2067,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X19" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y19" t="n">
         <v>171.6095167335022</v>
@@ -2086,19 +2086,19 @@
         <v>318.297755152415</v>
       </c>
       <c r="D20" t="n">
-        <v>307.7079050020904</v>
+        <v>301.7263503513806</v>
       </c>
       <c r="E20" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F20" t="n">
-        <v>261.5459553935344</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>302.2658320988205</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2247,19 +2247,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E22" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F22" t="n">
-        <v>98.44591140433867</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G22" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H22" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S22" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T22" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U22" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V22" t="n">
         <v>205.1625067052354</v>
@@ -2323,19 +2323,19 @@
         <v>318.297755152415</v>
       </c>
       <c r="D23" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E23" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F23" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G23" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H23" t="n">
-        <v>84.70823959699008</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W23" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X23" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y23" t="n">
-        <v>339.262802037461</v>
+        <v>300.136753303936</v>
       </c>
     </row>
     <row r="24">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2478,25 +2478,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C25" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D25" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E25" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F25" t="n">
-        <v>98.44591140433866</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G25" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H25" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I25" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S25" t="n">
         <v>142.7938887128493</v>
@@ -2532,7 +2532,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U25" t="n">
-        <v>239.2367015870209</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V25" t="n">
         <v>205.1625067052354</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C26" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F26" t="n">
-        <v>13.91332762480654</v>
+        <v>101.6194016989822</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958328</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W26" t="n">
         <v>302.2658320988205</v>
@@ -2623,7 +2623,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="27">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C28" t="n">
         <v>120.2716844800353</v>
@@ -2721,19 +2721,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404352</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X28" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C29" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E29" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F29" t="n">
-        <v>13.91332762480654</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988205</v>
+        <v>77.12881875749828</v>
       </c>
       <c r="X29" t="n">
         <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C31" t="n">
         <v>120.2716844800353</v>
@@ -2958,19 +2958,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404352</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145478</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U31" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X31" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>146.7139570676036</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C32" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F32" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958333</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988205</v>
+        <v>43.98432467468407</v>
       </c>
       <c r="X32" t="n">
         <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="33">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797667</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433874</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572828</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124551</v>
+        <v>49.3772837912456</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145475</v>
+        <v>41.95701605145483</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870207</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C35" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>307.7079050020904</v>
@@ -3277,7 +3277,7 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F35" t="n">
-        <v>359.9009091231189</v>
+        <v>291.0204578022376</v>
       </c>
       <c r="G35" t="n">
         <v>363.9465890348609</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W35" t="n">
-        <v>234.0716522785265</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X35" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>339.262802037461</v>
@@ -3426,25 +3426,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D37" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3483,7 +3483,7 @@
         <v>239.2367015870203</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052362</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W37" t="n">
         <v>239.5478617179984</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>318.297755152415</v>
@@ -3520,7 +3520,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>63.54448988428433</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V38" t="n">
-        <v>241.6510731180174</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>302.2658320988205</v>
@@ -3663,25 +3663,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128492</v>
       </c>
       <c r="T40" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V40" t="n">
         <v>205.1625067052354</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3751,10 +3751,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>236.7410560406729</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>168.1158122680963</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>57.68750238080754</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>49.49044812922072</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3957,16 +3957,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>135.4371632022853</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>25.73684954641072</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>47.41254713315888</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>6.380068175848154</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1627.383644777219</v>
+        <v>1707.656676566316</v>
       </c>
       <c r="C11" t="n">
-        <v>1305.870760784881</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="D11" t="n">
-        <v>1136.009825130819</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E11" t="n">
-        <v>797.6712054806478</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F11" t="n">
-        <v>434.1349336391136</v>
+        <v>684.268901082273</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810553</v>
@@ -5062,31 +5062,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T11" t="n">
         <v>3104.236671416635</v>
       </c>
       <c r="U11" t="n">
-        <v>2898.155827638544</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V11" t="n">
-        <v>2614.542573243047</v>
+        <v>2614.542573243048</v>
       </c>
       <c r="W11" t="n">
-        <v>2309.223550921006</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="X11" t="n">
-        <v>2309.223550921006</v>
+        <v>2050.346375594055</v>
       </c>
       <c r="Y11" t="n">
-        <v>1966.533851893268</v>
+        <v>1707.656676566316</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G12" t="n">
         <v>176.0213023927779</v>
@@ -5117,31 +5117,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5153,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5162,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052943</v>
+        <v>759.4662498052941</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254607</v>
+        <v>637.9796998254604</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611983</v>
+        <v>535.3126933611981</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268783</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770413</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H13" t="n">
         <v>116.3881606657647</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>158.1401341315257</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328088</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337116</v>
+        <v>771.6978860337117</v>
       </c>
       <c r="M13" t="n">
-        <v>1162.360316885667</v>
+        <v>1162.360316885668</v>
       </c>
       <c r="N13" t="n">
         <v>1550.274078843939</v>
@@ -5223,28 +5223,28 @@
         <v>2299.337630107746</v>
       </c>
       <c r="R13" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813348</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588248</v>
       </c>
       <c r="T13" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105847</v>
       </c>
       <c r="U13" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179564</v>
       </c>
       <c r="V13" t="n">
-        <v>1489.515482921749</v>
+        <v>1489.51548292175</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832863</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882919</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874604</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1386.143792573978</v>
+        <v>1650.849925018063</v>
       </c>
       <c r="C14" t="n">
-        <v>1386.143792573978</v>
+        <v>1329.337041025725</v>
       </c>
       <c r="D14" t="n">
-        <v>1386.143792573978</v>
+        <v>1018.520975367048</v>
       </c>
       <c r="E14" t="n">
-        <v>1047.805172923807</v>
+        <v>680.1823557168771</v>
       </c>
       <c r="F14" t="n">
-        <v>684.2689010822731</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="G14" t="n">
         <v>316.6460838753429</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912092</v>
@@ -5296,34 +5296,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T14" t="n">
-        <v>3104.236671416635</v>
+        <v>3170.105822574988</v>
       </c>
       <c r="U14" t="n">
-        <v>2898.155827638544</v>
+        <v>2964.024978796897</v>
       </c>
       <c r="V14" t="n">
-        <v>2699.318846352812</v>
+        <v>2964.024978796897</v>
       </c>
       <c r="W14" t="n">
-        <v>2393.999824030771</v>
+        <v>2658.705956474857</v>
       </c>
       <c r="X14" t="n">
-        <v>2067.983698717765</v>
+        <v>2332.68983116185</v>
       </c>
       <c r="Y14" t="n">
-        <v>1725.293999690027</v>
+        <v>1990.000132134112</v>
       </c>
     </row>
     <row r="15">
@@ -5348,16 +5348,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052943</v>
+        <v>759.4662498052941</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254607</v>
+        <v>637.9796998254604</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611983</v>
+        <v>535.3126933611981</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268783</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770413</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
         <v>158.1401341315256</v>
@@ -5442,19 +5442,19 @@
         <v>408.6327023328087</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
       </c>
       <c r="N16" t="n">
-        <v>1550.274078843938</v>
+        <v>1550.274078843939</v>
       </c>
       <c r="O16" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016759</v>
       </c>
       <c r="P16" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q16" t="n">
         <v>2299.337630107746</v>
@@ -5469,19 +5469,19 @@
         <v>1938.403572105846</v>
       </c>
       <c r="U16" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V16" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W16" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X16" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874604</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1507.448363242303</v>
+        <v>2018.472742224994</v>
       </c>
       <c r="C17" t="n">
-        <v>1446.825890789496</v>
+        <v>1696.959858232655</v>
       </c>
       <c r="D17" t="n">
-        <v>1136.009825130819</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E17" t="n">
-        <v>797.6712054806478</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F17" t="n">
-        <v>434.1349336391136</v>
+        <v>684.268901082273</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218342</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5515,22 +5515,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
         <v>3018.302393296686</v>
@@ -5548,19 +5548,19 @@
         <v>3104.236671416635</v>
       </c>
       <c r="U17" t="n">
-        <v>3104.236671416635</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V17" t="n">
-        <v>2820.623417021137</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="W17" t="n">
-        <v>2515.304394699097</v>
+        <v>2700.31264836878</v>
       </c>
       <c r="X17" t="n">
-        <v>2189.28826938609</v>
+        <v>2700.31264836878</v>
       </c>
       <c r="Y17" t="n">
-        <v>1846.598570358352</v>
+        <v>2357.622949341042</v>
       </c>
     </row>
     <row r="18">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759.4662498052943</v>
+        <v>759.4662498052946</v>
       </c>
       <c r="C19" t="n">
-        <v>637.9796998254607</v>
+        <v>637.979699825461</v>
       </c>
       <c r="D19" t="n">
-        <v>535.3126933611983</v>
+        <v>535.3126933611986</v>
       </c>
       <c r="E19" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268789</v>
       </c>
       <c r="F19" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770419</v>
       </c>
       <c r="G19" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H19" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
@@ -5679,7 +5679,7 @@
         <v>408.6327023328087</v>
       </c>
       <c r="L19" t="n">
-        <v>771.6978860337114</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M19" t="n">
         <v>1162.360316885667</v>
@@ -5718,7 +5718,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y19" t="n">
-        <v>893.6650816874608</v>
+        <v>893.665081687461</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1301.367519464213</v>
+        <v>2012.430767830338</v>
       </c>
       <c r="C20" t="n">
-        <v>979.8546354718744</v>
+        <v>1690.917883837999</v>
       </c>
       <c r="D20" t="n">
-        <v>669.0385698131972</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E20" t="n">
-        <v>330.6999501630263</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F20" t="n">
-        <v>66.51211643218342</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218342</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
@@ -5764,7 +5764,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
@@ -5773,31 +5773,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3262.764786084339</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3104.236671416635</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>2898.155827638544</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V20" t="n">
-        <v>2614.542573243047</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W20" t="n">
-        <v>2309.223550921006</v>
+        <v>3020.286799287131</v>
       </c>
       <c r="X20" t="n">
-        <v>1983.207425608</v>
+        <v>2694.270673974124</v>
       </c>
       <c r="Y20" t="n">
-        <v>1640.517726580261</v>
+        <v>2351.580974946386</v>
       </c>
     </row>
     <row r="21">
@@ -5807,31 +5807,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>759.4662498052943</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9796998254607</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D22" t="n">
-        <v>535.3126933611983</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E22" t="n">
         <v>434.8492327268785</v>
       </c>
       <c r="F22" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G22" t="n">
         <v>215.1557144998337</v>
@@ -5907,16 +5907,16 @@
         <v>116.3881606657648</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
         <v>158.1401341315256</v>
       </c>
       <c r="K22" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L22" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M22" t="n">
         <v>1162.360316885667</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1853.902653162632</v>
+        <v>1768.338774781834</v>
       </c>
       <c r="C23" t="n">
-        <v>1532.389769170294</v>
+        <v>1446.825890789496</v>
       </c>
       <c r="D23" t="n">
-        <v>1221.573703511617</v>
+        <v>1136.009825130819</v>
       </c>
       <c r="E23" t="n">
-        <v>883.2350838614459</v>
+        <v>797.6712054806478</v>
       </c>
       <c r="F23" t="n">
-        <v>519.6988120199117</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G23" t="n">
-        <v>152.0759948129815</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H23" t="n">
         <v>66.51211643218342</v>
@@ -5989,13 +5989,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
         <v>1573.776739001389</v>
@@ -6019,22 +6019,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3167.077706941466</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>3167.077706941466</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V23" t="n">
-        <v>3167.077706941466</v>
+        <v>3041.992567213674</v>
       </c>
       <c r="W23" t="n">
-        <v>2861.758684619425</v>
+        <v>2736.673544891633</v>
       </c>
       <c r="X23" t="n">
-        <v>2535.742559306419</v>
+        <v>2410.657419578626</v>
       </c>
       <c r="Y23" t="n">
-        <v>2193.052860278681</v>
+        <v>2107.488981897883</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>759.466249805294</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C25" t="n">
-        <v>637.9796998254603</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D25" t="n">
-        <v>535.3126933611979</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E25" t="n">
-        <v>434.8492327268782</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F25" t="n">
-        <v>335.4089181770412</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G25" t="n">
-        <v>215.1557144998335</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H25" t="n">
         <v>116.3881606657648</v>
@@ -6147,25 +6147,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K25" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L25" t="n">
-        <v>771.6978860337116</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M25" t="n">
         <v>1162.360316885667</v>
       </c>
       <c r="N25" t="n">
-        <v>1550.274078843939</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O25" t="n">
-        <v>1896.109063016759</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P25" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q25" t="n">
         <v>2299.337630107746</v>
@@ -6180,19 +6180,19 @@
         <v>1938.403572105846</v>
       </c>
       <c r="U25" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V25" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W25" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X25" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y25" t="n">
-        <v>893.6650816874603</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1301.367519464213</v>
+        <v>1507.448363242303</v>
       </c>
       <c r="C26" t="n">
-        <v>979.8546354718744</v>
+        <v>1185.935479249964</v>
       </c>
       <c r="D26" t="n">
-        <v>669.0385698131972</v>
+        <v>875.119413591287</v>
       </c>
       <c r="E26" t="n">
-        <v>330.6999501630263</v>
+        <v>536.7807939411159</v>
       </c>
       <c r="F26" t="n">
-        <v>316.6460838753429</v>
+        <v>434.1349336391137</v>
       </c>
       <c r="G26" t="n">
-        <v>316.6460838753429</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H26" t="n">
         <v>66.51211643218342</v>
@@ -6226,13 +6226,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
         <v>1573.776739001389</v>
@@ -6259,19 +6259,19 @@
         <v>3104.236671416635</v>
       </c>
       <c r="U26" t="n">
-        <v>2898.155827638544</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="V26" t="n">
-        <v>2614.542573243047</v>
+        <v>2820.623417021137</v>
       </c>
       <c r="W26" t="n">
-        <v>2309.223550921006</v>
+        <v>2515.304394699097</v>
       </c>
       <c r="X26" t="n">
-        <v>1983.207425608</v>
+        <v>2189.28826938609</v>
       </c>
       <c r="Y26" t="n">
-        <v>1640.517726580261</v>
+        <v>1846.598570358351</v>
       </c>
     </row>
     <row r="27">
@@ -6281,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I27" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P27" t="n">
         <v>2407.411984886741</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>759.4662498052943</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C28" t="n">
-        <v>637.9796998254607</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D28" t="n">
-        <v>535.3126933611983</v>
+        <v>535.3126933611981</v>
       </c>
       <c r="E28" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268782</v>
       </c>
       <c r="F28" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770411</v>
       </c>
       <c r="G28" t="n">
         <v>215.1557144998337</v>
@@ -6390,7 +6390,7 @@
         <v>408.6327023328085</v>
       </c>
       <c r="L28" t="n">
-        <v>771.6978860337114</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M28" t="n">
         <v>1162.360316885667</v>
@@ -6429,7 +6429,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y28" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874607</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1301.367519464213</v>
+        <v>2018.472742224994</v>
       </c>
       <c r="C29" t="n">
-        <v>979.8546354718744</v>
+        <v>1696.959858232656</v>
       </c>
       <c r="D29" t="n">
-        <v>669.0385698131972</v>
+        <v>1386.143792573979</v>
       </c>
       <c r="E29" t="n">
-        <v>330.6999501630263</v>
+        <v>1047.805172923808</v>
       </c>
       <c r="F29" t="n">
-        <v>316.6460838753429</v>
+        <v>684.2689010822733</v>
       </c>
       <c r="G29" t="n">
-        <v>316.6460838753429</v>
+        <v>316.646083875343</v>
       </c>
       <c r="H29" t="n">
         <v>66.51211643218342</v>
@@ -6463,13 +6463,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
         <v>1573.776739001389</v>
@@ -6496,19 +6496,19 @@
         <v>3104.236671416635</v>
       </c>
       <c r="U29" t="n">
-        <v>2898.155827638544</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="V29" t="n">
-        <v>2614.542573243047</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="W29" t="n">
-        <v>2309.223550921006</v>
+        <v>3026.328773681788</v>
       </c>
       <c r="X29" t="n">
-        <v>1983.207425608</v>
+        <v>2700.312648368781</v>
       </c>
       <c r="Y29" t="n">
-        <v>1640.517726580261</v>
+        <v>2357.622949341043</v>
       </c>
     </row>
     <row r="30">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>759.4662498052944</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C31" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D31" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611981</v>
       </c>
       <c r="E31" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268782</v>
       </c>
       <c r="F31" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770411</v>
       </c>
       <c r="G31" t="n">
         <v>215.1557144998337</v>
@@ -6624,10 +6624,10 @@
         <v>158.1401341315256</v>
       </c>
       <c r="K31" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L31" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M31" t="n">
         <v>1162.360316885667</v>
@@ -6666,7 +6666,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y31" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874607</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1650.849925018064</v>
+        <v>1768.338774781835</v>
       </c>
       <c r="C32" t="n">
-        <v>1329.337041025725</v>
+        <v>1446.825890789496</v>
       </c>
       <c r="D32" t="n">
-        <v>1018.520975367048</v>
+        <v>1136.009825130819</v>
       </c>
       <c r="E32" t="n">
-        <v>680.1823557168772</v>
+        <v>797.671205480648</v>
       </c>
       <c r="F32" t="n">
-        <v>316.6460838753429</v>
+        <v>434.1349336391137</v>
       </c>
       <c r="G32" t="n">
-        <v>316.6460838753429</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
@@ -6721,31 +6721,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R32" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T32" t="n">
-        <v>3262.764786084339</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U32" t="n">
-        <v>3056.683942306249</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="V32" t="n">
-        <v>2773.070687910752</v>
+        <v>2820.623417021138</v>
       </c>
       <c r="W32" t="n">
-        <v>2467.751665588711</v>
+        <v>2776.194806238629</v>
       </c>
       <c r="X32" t="n">
-        <v>2141.735540275705</v>
+        <v>2450.178680925622</v>
       </c>
       <c r="Y32" t="n">
-        <v>1799.045841247966</v>
+        <v>2107.488981897883</v>
       </c>
     </row>
     <row r="33">
@@ -6770,16 +6770,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031479</v>
@@ -6834,67 +6834,67 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>759.4662498052942</v>
+        <v>759.4662498052949</v>
       </c>
       <c r="C34" t="n">
-        <v>637.9796998254606</v>
+        <v>637.9796998254611</v>
       </c>
       <c r="D34" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611986</v>
       </c>
       <c r="E34" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268788</v>
       </c>
       <c r="F34" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770416</v>
       </c>
       <c r="G34" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998338</v>
       </c>
       <c r="H34" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J34" t="n">
         <v>158.1401341315256</v>
       </c>
       <c r="K34" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L34" t="n">
-        <v>771.6978860337114</v>
+        <v>771.6978860337124</v>
       </c>
       <c r="M34" t="n">
-        <v>1162.360316885667</v>
+        <v>1162.360316885668</v>
       </c>
       <c r="N34" t="n">
-        <v>1550.274078843938</v>
+        <v>1550.274078843939</v>
       </c>
       <c r="O34" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016759</v>
       </c>
       <c r="P34" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q34" t="n">
         <v>2299.337630107746</v>
       </c>
       <c r="R34" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813348</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588248</v>
       </c>
       <c r="T34" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105847</v>
       </c>
       <c r="U34" t="n">
         <v>1696.750338179563</v>
       </c>
       <c r="V34" t="n">
-        <v>1489.515482921749</v>
+        <v>1489.51548292175</v>
       </c>
       <c r="W34" t="n">
         <v>1247.547945832862</v>
@@ -6903,7 +6903,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y34" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874613</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2018.472742224994</v>
+        <v>1627.38364477722</v>
       </c>
       <c r="C35" t="n">
-        <v>1696.959858232656</v>
+        <v>1627.38364477722</v>
       </c>
       <c r="D35" t="n">
-        <v>1386.143792573978</v>
+        <v>1316.567579118543</v>
       </c>
       <c r="E35" t="n">
-        <v>1047.805172923807</v>
+        <v>978.2289594683717</v>
       </c>
       <c r="F35" t="n">
         <v>684.2689010822731</v>
@@ -6931,16 +6931,16 @@
         <v>316.6460838753429</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329465</v>
@@ -6949,7 +6949,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
@@ -6958,31 +6958,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T35" t="n">
-        <v>3262.764786084339</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U35" t="n">
-        <v>3262.764786084339</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V35" t="n">
-        <v>3262.764786084339</v>
+        <v>2614.542573243048</v>
       </c>
       <c r="W35" t="n">
-        <v>3026.328773681787</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="X35" t="n">
-        <v>2700.312648368781</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="Y35" t="n">
-        <v>2357.622949341042</v>
+        <v>1966.533851893268</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>759.4662498052942</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C37" t="n">
-        <v>637.9796998254606</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D37" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E37" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F37" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G37" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H37" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K37" t="n">
         <v>408.6327023328087</v>
       </c>
       <c r="L37" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M37" t="n">
         <v>1162.360316885667</v>
@@ -7134,13 +7134,13 @@
         <v>1489.515482921749</v>
       </c>
       <c r="W37" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X37" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y37" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1768.338774781834</v>
+        <v>2018.472742224994</v>
       </c>
       <c r="C38" t="n">
-        <v>1446.825890789496</v>
+        <v>1696.959858232656</v>
       </c>
       <c r="D38" t="n">
-        <v>1136.009825130819</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E38" t="n">
-        <v>797.6712054806479</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F38" t="n">
-        <v>434.1349336391137</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218343</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.605821609171</v>
+        <v>3198.57843266587</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.605821609171</v>
+        <v>2992.49758888778</v>
       </c>
       <c r="V38" t="n">
-        <v>3081.513828560669</v>
+        <v>2992.49758888778</v>
       </c>
       <c r="W38" t="n">
-        <v>2776.194806238628</v>
+        <v>2687.178566565739</v>
       </c>
       <c r="X38" t="n">
-        <v>2450.178680925621</v>
+        <v>2361.162441252732</v>
       </c>
       <c r="Y38" t="n">
-        <v>2107.488981897883</v>
+        <v>2018.472742224994</v>
       </c>
     </row>
     <row r="39">
@@ -7244,16 +7244,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>759.4662498052942</v>
+        <v>759.4662498052943</v>
       </c>
       <c r="C40" t="n">
-        <v>637.9796998254606</v>
+        <v>637.9796998254607</v>
       </c>
       <c r="D40" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E40" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F40" t="n">
         <v>335.4089181770414</v>
@@ -7329,55 +7329,55 @@
         <v>116.3881606657648</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>158.1401341315245</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K40" t="n">
-        <v>408.6327023328075</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L40" t="n">
-        <v>771.6978860337103</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M40" t="n">
-        <v>1162.360316885666</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N40" t="n">
-        <v>1550.274078843937</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O40" t="n">
-        <v>1896.109063016757</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P40" t="n">
-        <v>2175.221948702823</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q40" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R40" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T40" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U40" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V40" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W40" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X40" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y40" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1418.660964416653</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C41" t="n">
-        <v>1049.698447476242</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D41" t="n">
-        <v>691.4327488694912</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E41" t="n">
-        <v>305.644496271247</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F41" t="n">
-        <v>66.51211643218343</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U41" t="n">
-        <v>2866.09759726723</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V41" t="n">
-        <v>2535.034709923659</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W41" t="n">
-        <v>2182.266054653545</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X41" t="n">
-        <v>1808.800296392465</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y41" t="n">
-        <v>1418.660964416653</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="42">
@@ -7487,16 +7487,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7508,10 +7508,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
         <v>2564.909189125856</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>482.8906159540807</v>
+        <v>270.9995076393838</v>
       </c>
       <c r="C43" t="n">
-        <v>313.9544330261738</v>
+        <v>270.9995076393838</v>
       </c>
       <c r="D43" t="n">
-        <v>163.8377936138381</v>
+        <v>270.9995076393838</v>
       </c>
       <c r="E43" t="n">
-        <v>163.8377936138381</v>
+        <v>270.9995076393838</v>
       </c>
       <c r="F43" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G43" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7590,31 +7590,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1877.304196442815</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
-        <v>1685.618312269642</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1463.851696839168</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1174.748829964811</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V43" t="n">
-        <v>1174.748829964811</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W43" t="n">
-        <v>885.3316599278505</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X43" t="n">
-        <v>885.3316599278505</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y43" t="n">
-        <v>664.5390807843204</v>
+        <v>452.6479724696235</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2329.167357637081</v>
+        <v>1754.744438482647</v>
       </c>
       <c r="C44" t="n">
-        <v>1960.204840696669</v>
+        <v>1754.744438482647</v>
       </c>
       <c r="D44" t="n">
-        <v>1601.939142089919</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E44" t="n">
-        <v>1216.150889491674</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F44" t="n">
-        <v>805.1649847020669</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G44" t="n">
-        <v>390.0925345470634</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H44" t="n">
-        <v>92.50893415583062</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7660,40 +7660,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U44" t="n">
-        <v>3072.075344883007</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V44" t="n">
-        <v>3072.075344883007</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W44" t="n">
-        <v>2719.306689612893</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X44" t="n">
-        <v>2719.306689612893</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="Y44" t="n">
-        <v>2329.167357637081</v>
+        <v>2141.344278546768</v>
       </c>
     </row>
     <row r="45">
@@ -7718,22 +7718,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7745,10 +7745,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R45" t="n">
         <v>2564.909189125856</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.4482993600903</v>
+        <v>1042.179465010818</v>
       </c>
       <c r="C46" t="n">
-        <v>66.51211643218342</v>
+        <v>873.2432820829115</v>
       </c>
       <c r="D46" t="n">
-        <v>66.51211643218342</v>
+        <v>723.1266426705757</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218342</v>
+        <v>575.2135490881826</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218342</v>
+        <v>428.3236015902722</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218342</v>
+        <v>260.6207649649912</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218342</v>
+        <v>114.4035781828489</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7827,31 +7827,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>1920.850034779555</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T46" t="n">
-        <v>1699.083419349081</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U46" t="n">
-        <v>1409.980552474725</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V46" t="n">
-        <v>1155.296064268838</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W46" t="n">
-        <v>865.8788942318776</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="X46" t="n">
-        <v>637.8893433338602</v>
+        <v>1444.620508984588</v>
       </c>
       <c r="Y46" t="n">
-        <v>417.0967641903301</v>
+        <v>1223.827929841058</v>
       </c>
     </row>
   </sheetData>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>152.2108253758123</v>
+        <v>152.2108253758121</v>
       </c>
       <c r="K5" t="n">
-        <v>176.8735421209848</v>
+        <v>176.8735421209844</v>
       </c>
       <c r="L5" t="n">
-        <v>182.1527623023304</v>
+        <v>182.1527623023299</v>
       </c>
       <c r="M5" t="n">
-        <v>170.6907143895768</v>
+        <v>170.6907143895763</v>
       </c>
       <c r="N5" t="n">
-        <v>168.7922560961763</v>
+        <v>168.7922560961757</v>
       </c>
       <c r="O5" t="n">
-        <v>172.8557019027623</v>
+        <v>172.8557019027618</v>
       </c>
       <c r="P5" t="n">
-        <v>182.3778382331309</v>
+        <v>182.3778382331305</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6175011982812</v>
+        <v>185.6175011982808</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>109.6636510644742</v>
+        <v>109.6636510644741</v>
       </c>
       <c r="K6" t="n">
-        <v>108.4883792396243</v>
+        <v>108.488379239624</v>
       </c>
       <c r="L6" t="n">
-        <v>99.08556857396277</v>
+        <v>99.08556857396241</v>
       </c>
       <c r="M6" t="n">
-        <v>96.07579286827625</v>
+        <v>96.07579286827581</v>
       </c>
       <c r="N6" t="n">
-        <v>84.06444643947228</v>
+        <v>84.06444643947184</v>
       </c>
       <c r="O6" t="n">
-        <v>99.34678274386721</v>
+        <v>99.34678274386681</v>
       </c>
       <c r="P6" t="n">
-        <v>99.26290145972018</v>
+        <v>99.26290145971987</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.7780516067397</v>
+        <v>116.7780516067395</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8379,19 +8379,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>112.227540646018</v>
+        <v>112.2275406460178</v>
       </c>
       <c r="M7" t="n">
-        <v>115.0370111850942</v>
+        <v>115.0370111850939</v>
       </c>
       <c r="N7" t="n">
-        <v>104.3647933249823</v>
+        <v>104.3647933249821</v>
       </c>
       <c r="O7" t="n">
-        <v>116.9160502008702</v>
+        <v>116.91605020087</v>
       </c>
       <c r="P7" t="n">
-        <v>119.2963951161055</v>
+        <v>119.2963951161053</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>-1.876970801006905e-12</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.96299667475892</v>
+        <v>14.96299667475891</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>139.5455787045687</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598765</v>
+        <v>66.46756048619392</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23497,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>65.21045964676875</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>83.92851037866745</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>258.2815074241357</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23788,16 +23788,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>106.4010846217538</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23974,19 +23974,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>5.981554650709768</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>98.35495372958445</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>162.9243881717377</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.21262516958325</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U23" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V23" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>39.12604873352507</v>
       </c>
     </row>
     <row r="24">
@@ -24454,13 +24454,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>345.9875814983124</v>
+        <v>258.2815074241367</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24691,10 +24691,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>345.9875814983124</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24736,13 +24736,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>225.1370133413222</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>189.0447479772844</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,16 +24970,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>204.0200353403095</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>258.2815074241364</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25165,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>68.88045132088132</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25207,19 +25207,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>68.19417982029395</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>156.9428335210276</v>
+        <v>93.39834363674325</v>
       </c>
       <c r="U38" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>39.12604873352495</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25639,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>170.1349897010386</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,16 +25681,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>181.1251564493167</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>87.73354564212372</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>39.44170454082661</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>219.2458784183976</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>15.84008022651523</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>48.93987327667924</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>183.3889571555937</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>770187.785399801</v>
+        <v>770187.7853998007</v>
       </c>
     </row>
     <row r="4">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>644156.8503893914</v>
+        <v>644156.8503893913</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>644156.8503893914</v>
+        <v>644156.8503893913</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>644156.8503893914</v>
+        <v>644156.8503893913</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>576063.9805322902</v>
+        <v>576063.9805322901</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>757830.6133132601</v>
+        <v>757830.6133132607</v>
       </c>
       <c r="C2" t="n">
-        <v>757855.6284313371</v>
+        <v>757855.6284313378</v>
       </c>
       <c r="D2" t="n">
         <v>757907.8090454459</v>
       </c>
       <c r="E2" t="n">
-        <v>707191.1841481038</v>
+        <v>707191.184148104</v>
       </c>
       <c r="F2" t="n">
-        <v>707191.1841481038</v>
+        <v>707191.1841481045</v>
       </c>
       <c r="G2" t="n">
         <v>707191.1841481044</v>
       </c>
       <c r="H2" t="n">
+        <v>707191.1841481046</v>
+      </c>
+      <c r="I2" t="n">
+        <v>707191.184148104</v>
+      </c>
+      <c r="J2" t="n">
+        <v>707191.1841481038</v>
+      </c>
+      <c r="K2" t="n">
+        <v>707191.1841481038</v>
+      </c>
+      <c r="L2" t="n">
+        <v>707191.1841481044</v>
+      </c>
+      <c r="M2" t="n">
         <v>707191.1841481042</v>
       </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
         <v>707191.1841481046</v>
       </c>
-      <c r="J2" t="n">
-        <v>707191.1841481046</v>
-      </c>
-      <c r="K2" t="n">
-        <v>707191.1841481045</v>
-      </c>
-      <c r="L2" t="n">
-        <v>707191.1841481049</v>
-      </c>
-      <c r="M2" t="n">
-        <v>707191.1841481037</v>
-      </c>
-      <c r="N2" t="n">
-        <v>707191.184148104</v>
-      </c>
       <c r="O2" t="n">
-        <v>630844.6330962032</v>
+        <v>630844.6330962033</v>
       </c>
       <c r="P2" t="n">
-        <v>630844.6330962031</v>
+        <v>630844.6330962033</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>76955.46132113696</v>
+        <v>76955.46132113767</v>
       </c>
       <c r="D3" t="n">
-        <v>150973.6771990678</v>
+        <v>150973.6771990671</v>
       </c>
       <c r="E3" t="n">
-        <v>951823.5594950288</v>
+        <v>951823.5594950292</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>37580.10929487403</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>207188.568292073</v>
@@ -26420,46 +26420,46 @@
         <v>463150.7311021098</v>
       </c>
       <c r="C4" t="n">
-        <v>434600.7865411559</v>
+        <v>434600.7865411557</v>
       </c>
       <c r="D4" t="n">
         <v>375482.0462084095</v>
       </c>
       <c r="E4" t="n">
+        <v>61265.27723866006</v>
+      </c>
+      <c r="F4" t="n">
+        <v>61265.2772386601</v>
+      </c>
+      <c r="G4" t="n">
+        <v>61265.27723866011</v>
+      </c>
+      <c r="H4" t="n">
+        <v>61265.27723866006</v>
+      </c>
+      <c r="I4" t="n">
+        <v>61265.27723866006</v>
+      </c>
+      <c r="J4" t="n">
+        <v>61265.27723866004</v>
+      </c>
+      <c r="K4" t="n">
+        <v>61265.27723866004</v>
+      </c>
+      <c r="L4" t="n">
+        <v>61265.27723866003</v>
+      </c>
+      <c r="M4" t="n">
         <v>61265.27723866007</v>
       </c>
-      <c r="F4" t="n">
-        <v>61265.27723866009</v>
-      </c>
-      <c r="G4" t="n">
-        <v>61265.27723866009</v>
-      </c>
-      <c r="H4" t="n">
-        <v>61265.27723866009</v>
-      </c>
-      <c r="I4" t="n">
-        <v>61265.2772386601</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="N4" t="n">
         <v>61265.27723866007</v>
       </c>
-      <c r="K4" t="n">
-        <v>61265.27723866006</v>
-      </c>
-      <c r="L4" t="n">
-        <v>61265.27723866009</v>
-      </c>
-      <c r="M4" t="n">
-        <v>61265.2772386601</v>
-      </c>
-      <c r="N4" t="n">
-        <v>61265.27723866008</v>
-      </c>
       <c r="O4" t="n">
-        <v>14040.01085717763</v>
+        <v>14040.01085717765</v>
       </c>
       <c r="P4" t="n">
-        <v>14040.01085717763</v>
+        <v>14040.01085717765</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>35469.92964214968</v>
+        <v>35469.9296421497</v>
       </c>
       <c r="D5" t="n">
         <v>39312.96135688073</v>
@@ -26505,13 +26505,13 @@
         <v>78255.49332178176</v>
       </c>
       <c r="N5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>261052.2822111504</v>
+        <v>261008.1464324698</v>
       </c>
       <c r="C6" t="n">
-        <v>210829.4509268946</v>
+        <v>210785.9912324859</v>
       </c>
       <c r="D6" t="n">
-        <v>192139.1242810879</v>
+        <v>192097.0748735476</v>
       </c>
       <c r="E6" t="n">
-        <v>-384153.1459073669</v>
+        <v>-385565.9149067279</v>
       </c>
       <c r="F6" t="n">
-        <v>567670.4135876622</v>
+        <v>566257.644588302</v>
       </c>
       <c r="G6" t="n">
-        <v>567670.4135876625</v>
+        <v>566257.6445883015</v>
       </c>
       <c r="H6" t="n">
-        <v>567670.4135876623</v>
+        <v>566257.6445883019</v>
       </c>
       <c r="I6" t="n">
-        <v>567670.4135876627</v>
+        <v>566257.6445883013</v>
       </c>
       <c r="J6" t="n">
-        <v>530090.3042927888</v>
+        <v>528677.5352934271</v>
       </c>
       <c r="K6" t="n">
-        <v>567670.4135876627</v>
+        <v>566257.6445883011</v>
       </c>
       <c r="L6" t="n">
-        <v>567670.413587663</v>
+        <v>566257.6445883017</v>
       </c>
       <c r="M6" t="n">
-        <v>360481.8452955889</v>
+        <v>359069.0762962283</v>
       </c>
       <c r="N6" t="n">
-        <v>567670.4135876623</v>
+        <v>566257.6445883019</v>
       </c>
       <c r="O6" t="n">
-        <v>542498.2816776322</v>
+        <v>539022.0923795713</v>
       </c>
       <c r="P6" t="n">
-        <v>542498.2816776321</v>
+        <v>539022.0923795713</v>
       </c>
     </row>
   </sheetData>
@@ -26694,34 +26694,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J2" t="n">
+        <v>46.97513661859252</v>
+      </c>
+      <c r="K2" t="n">
+        <v>46.97513661859252</v>
+      </c>
+      <c r="L2" t="n">
+        <v>46.97513661859251</v>
+      </c>
+      <c r="M2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="K2" t="n">
-        <v>46.97513661859255</v>
-      </c>
-      <c r="L2" t="n">
-        <v>46.97513661859258</v>
-      </c>
-      <c r="M2" t="n">
-        <v>46.97513661859258</v>
-      </c>
       <c r="N2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26740,7 +26740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>84.51053404356344</v>
+        <v>84.51053404356423</v>
       </c>
       <c r="D3" t="n">
         <v>260.7963925174648</v>
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022928</v>
@@ -26819,19 +26819,19 @@
         <v>831.4014554022928</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26962,16 +26962,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>84.51053404356344</v>
+        <v>84.51053404356423</v>
       </c>
       <c r="D3" t="n">
-        <v>176.2858584739014</v>
+        <v>176.2858584739006</v>
       </c>
       <c r="E3" t="n">
-        <v>828.9803080758337</v>
+        <v>828.9803080758339</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-3.063126626087925e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>335.9954312342651</v>
+        <v>335.995431234265</v>
       </c>
       <c r="I5" t="n">
-        <v>197.378030821805</v>
+        <v>197.3780308218049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>128.5278723768723</v>
+        <v>128.5278723768721</v>
       </c>
       <c r="S5" t="n">
-        <v>201.2782251861742</v>
+        <v>201.2782251861741</v>
       </c>
       <c r="T5" t="n">
         <v>221.6086340353848</v>
@@ -27715,7 +27715,7 @@
         <v>110.4798574821198</v>
       </c>
       <c r="I6" t="n">
-        <v>83.13806971705684</v>
+        <v>83.13806971705678</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>88.87169151188196</v>
+        <v>88.87169151188185</v>
       </c>
       <c r="S6" t="n">
         <v>168.3067360880407</v>
@@ -27794,13 +27794,13 @@
         <v>160.8722331255608</v>
       </c>
       <c r="I7" t="n">
-        <v>150.8675102286336</v>
+        <v>150.8675102286335</v>
       </c>
       <c r="J7" t="n">
-        <v>82.58477973541387</v>
+        <v>82.58477973541378</v>
       </c>
       <c r="K7" t="n">
-        <v>4.563842234460878</v>
+        <v>4.563842234460711</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>73.40095261111631</v>
+        <v>73.40095261111618</v>
       </c>
       <c r="R7" t="n">
-        <v>170.4411110266865</v>
+        <v>170.4411110266864</v>
       </c>
       <c r="S7" t="n">
-        <v>221.360750598259</v>
+        <v>221.3607505982589</v>
       </c>
       <c r="T7" t="n">
         <v>227.2944426905688</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="17">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859233</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="26">
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
     </row>
     <row r="29">
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859252</v>
       </c>
     </row>
     <row r="32">
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859369</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="35">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859239</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="38">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859141</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3397408403761342</v>
+        <v>0.3397408403761374</v>
       </c>
       <c r="H5" t="n">
-        <v>3.479370881502085</v>
+        <v>3.479370881502118</v>
       </c>
       <c r="I5" t="n">
-        <v>13.09785874860093</v>
+        <v>13.09785874860105</v>
       </c>
       <c r="J5" t="n">
-        <v>28.83507915087394</v>
+        <v>28.83507915087421</v>
       </c>
       <c r="K5" t="n">
-        <v>43.21630892399571</v>
+        <v>43.21630892399612</v>
       </c>
       <c r="L5" t="n">
-        <v>53.61365266765684</v>
+        <v>53.61365266765734</v>
       </c>
       <c r="M5" t="n">
-        <v>59.65551883769592</v>
+        <v>59.65551883769648</v>
       </c>
       <c r="N5" t="n">
-        <v>60.62080750041461</v>
+        <v>60.62080750041518</v>
       </c>
       <c r="O5" t="n">
-        <v>57.24250951892442</v>
+        <v>57.24250951892496</v>
       </c>
       <c r="P5" t="n">
-        <v>48.8551575221386</v>
+        <v>48.85515752213906</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.68818867616829</v>
+        <v>36.68818867616863</v>
       </c>
       <c r="R5" t="n">
-        <v>21.34124556427736</v>
+        <v>21.34124556427756</v>
       </c>
       <c r="S5" t="n">
-        <v>7.741844400071165</v>
+        <v>7.741844400071238</v>
       </c>
       <c r="T5" t="n">
-        <v>1.487215528746528</v>
+        <v>1.487215528746542</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02717926723009073</v>
+        <v>0.02717926723009098</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1817773751125704</v>
+        <v>0.1817773751125721</v>
       </c>
       <c r="H6" t="n">
-        <v>1.755586754376667</v>
+        <v>1.755586754376684</v>
       </c>
       <c r="I6" t="n">
-        <v>6.258563134358237</v>
+        <v>6.258563134358296</v>
       </c>
       <c r="J6" t="n">
-        <v>17.17397560219246</v>
+        <v>17.17397560219262</v>
       </c>
       <c r="K6" t="n">
-        <v>29.35305973473467</v>
+        <v>29.35305973473495</v>
       </c>
       <c r="L6" t="n">
-        <v>39.4688112059114</v>
+        <v>39.46881120591177</v>
       </c>
       <c r="M6" t="n">
-        <v>46.05824105374207</v>
+        <v>46.0582410537425</v>
       </c>
       <c r="N6" t="n">
-        <v>47.27726564386103</v>
+        <v>47.27726564386147</v>
       </c>
       <c r="O6" t="n">
-        <v>43.24946170057723</v>
+        <v>43.24946170057763</v>
       </c>
       <c r="P6" t="n">
-        <v>34.71150595461005</v>
+        <v>34.71150595461038</v>
       </c>
       <c r="Q6" t="n">
-        <v>23.2037224792818</v>
+        <v>23.20372247928202</v>
       </c>
       <c r="R6" t="n">
-        <v>11.28614264076118</v>
+        <v>11.28614264076128</v>
       </c>
       <c r="S6" t="n">
-        <v>3.376435015797084</v>
+        <v>3.376435015797116</v>
       </c>
       <c r="T6" t="n">
-        <v>0.7326903847739129</v>
+        <v>0.7326903847739199</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01195903783635332</v>
+        <v>0.01195903783635343</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1523960449965898</v>
+        <v>0.1523960449965912</v>
       </c>
       <c r="H7" t="n">
-        <v>1.354939381878772</v>
+        <v>1.354939381878785</v>
       </c>
       <c r="I7" t="n">
-        <v>4.582964698624719</v>
+        <v>4.582964698624763</v>
       </c>
       <c r="J7" t="n">
-        <v>10.7744003812589</v>
+        <v>10.774400381259</v>
       </c>
       <c r="K7" t="n">
-        <v>17.70564959142197</v>
+        <v>17.70564959142214</v>
       </c>
       <c r="L7" t="n">
-        <v>22.65713563522027</v>
+        <v>22.65713563522048</v>
       </c>
       <c r="M7" t="n">
-        <v>23.88877276251089</v>
+        <v>23.88877276251111</v>
       </c>
       <c r="N7" t="n">
-        <v>23.32075114025089</v>
+        <v>23.32075114025111</v>
       </c>
       <c r="O7" t="n">
-        <v>21.54048825097254</v>
+        <v>21.54048825097274</v>
       </c>
       <c r="P7" t="n">
-        <v>18.43160893304209</v>
+        <v>18.43160893304226</v>
       </c>
       <c r="Q7" t="n">
-        <v>12.76109064057808</v>
+        <v>12.7610906405782</v>
       </c>
       <c r="R7" t="n">
-        <v>6.852280350483027</v>
+        <v>6.852280350483091</v>
       </c>
       <c r="S7" t="n">
-        <v>2.655847438713296</v>
+        <v>2.655847438713321</v>
       </c>
       <c r="T7" t="n">
-        <v>0.6511467377127017</v>
+        <v>0.6511467377127078</v>
       </c>
       <c r="U7" t="n">
-        <v>0.008312511545268544</v>
+        <v>0.008312511545268622</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I11" t="n">
         <v>168.89895979748</v>
@@ -31764,31 +31764,31 @@
         <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R11" t="n">
         <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T11" t="n">
         <v>19.17787942451121</v>
@@ -31837,43 +31837,43 @@
         <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J12" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31916,19 +31916,19 @@
         <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K13" t="n">
         <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N13" t="n">
         <v>300.7247737883116</v>
@@ -31943,13 +31943,13 @@
         <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S13" t="n">
         <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563574</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099068</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L12" t="n">
         <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165882</v>
+        <v>92.55355323165887</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629122</v>
@@ -35576,16 +35576,16 @@
         <v>366.7325087887908</v>
       </c>
       <c r="M13" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120765</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861328</v>
       </c>
       <c r="O13" t="n">
         <v>349.3282668412324</v>
       </c>
       <c r="P13" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637031</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3693751564863</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K16" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L16" t="n">
         <v>366.7325087887907</v>
@@ -35819,13 +35819,13 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O16" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P16" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165882</v>
       </c>
       <c r="K19" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L19" t="n">
         <v>366.7325087887907</v>
@@ -36053,16 +36053,16 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N19" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O19" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P19" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K22" t="n">
         <v>253.0227961629121</v>
@@ -36287,10 +36287,10 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M22" t="n">
-        <v>394.6085160120762</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N22" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O22" t="n">
         <v>349.3282668412323</v>
@@ -36381,7 +36381,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222479</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K25" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M25" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N25" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O25" t="n">
         <v>349.3282668412323</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36770,7 +36770,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -37007,7 +37007,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165873</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887918</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
@@ -37244,7 +37244,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887905</v>
       </c>
       <c r="M37" t="n">
         <v>394.6085160120764</v>
@@ -37548,7 +37548,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923316</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165763</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
         <v>366.7325087887907</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.05300088822</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
